--- a/biology/Zoologie/Alboculus_zhejiangensis/Alboculus_zhejiangensis.xlsx
+++ b/biology/Zoologie/Alboculus_zhejiangensis/Alboculus_zhejiangensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alboculus zhejiangensis est une espèce d'araignées aranéomorphes de la famille des Phrurolithidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alboculus zhejiangensis est une espèce d'araignées aranéomorphes de la famille des Phrurolithidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Chine[1]. Elle se rencontre au Zhejiang et au Jiangxi[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Chine. Elle se rencontre au Zhejiang et au Jiangxi.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 2,71 mm[3].
-Le mâle décrit par Liu, Luo, Ying, Xiao, Xu et Xiao en 2020 mesure 2,50 mm et la femelle 2,40 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 2,71 mm.
+Le mâle décrit par Liu, Luo, Ying, Xiao, Xu et Xiao en 2020 mesure 2,50 mm et la femelle 2,40 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Phrurolithus zhejiangensis par Song et Kim en 1991. Elle est placée dans le genre Otacilia par Zamani et Marusik en 2020[4] puis dans le genre Alboculus par Liu, Luo, Ying, Xiao, Xu et Xiao en 2020[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Phrurolithus zhejiangensis par Song et Kim en 1991. Elle est placée dans le genre Otacilia par Zamani et Marusik en 2020 puis dans le genre Alboculus par Liu, Luo, Ying, Xiao, Xu et Xiao en 2020.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de zhejiang et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le Zhejiang.
 </t>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Song &amp; Kim, 1991 : « On some species of spiders from Mount West Tianmu, Zhejiang, China (Araneae). » Korean Arachnology, vol. 7, p. 19-27.</t>
         </is>
